--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Mllsc_mollusks_FCT_EPC_012916.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_c_Mllsc_mollusks_FCT_EPC_012916.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="16480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c_Mllsc" sheetId="1" r:id="rId1"/>
@@ -625,13 +625,13 @@
     <t xml:space="preserve">F  - FAO estimate from available sources of information  </t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>sodium_g</t>
   </si>
   <si>
     <t>potassium_g</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -7650,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7714,13 +7714,13 @@
         <v>194</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>195</v>
       </c>
       <c r="T1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s">
         <v>150</v>
@@ -7759,7 +7759,7 @@
         <v>161</v>
       </c>
       <c r="AG1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH1" t="s">
         <v>162</v>
@@ -11371,7 +11371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO121"/>
+  <dimension ref="A1:AN121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D129" sqref="D129"/>
@@ -11386,7 +11386,7 @@
     <col min="36" max="37" width="17.6640625" style="3" customWidth="1"/>
     <col min="38" max="39" width="15.5" style="3" customWidth="1"/>
     <col min="40" max="40" width="20.6640625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="15.5" style="3" customWidth="1"/>
+    <col min="41" max="41" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="AD1" s="3" t="str">
         <f>FCT!AG1</f>
-        <v>vit_d_μg</v>
+        <v>vit_d_µg</v>
       </c>
       <c r="AE1" s="3" t="str">
         <f>FCT!AH1</f>
